--- a/TestDeUnidadPrueba.xlsx
+++ b/TestDeUnidadPrueba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>G</t>
   </si>
@@ -28,6 +28,18 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Diag</t>
+  </si>
+  <si>
+    <t>Arrib</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -380,15 +392,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="O7" sqref="L7:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -443,8 +455,20 @@
         <f>H2-1</f>
         <v>-7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -480,45 +504,56 @@
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f>L3*4+M3*2+N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B11" si="2">B3-1</f>
+        <f t="shared" ref="B4:B9" si="2">B3-1</f>
         <v>-2</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C9" si="3">MAX(C3-1,B4-1,B3+IF($A4=C$1,2,-2))</f>
+        <f>MAX(C3-1,B4-1,B3+IF($A4=C$1,2,-2))</f>
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D9" si="4">MAX(D3-1,C4-1,C3+IF($A4=D$1,2,-2))</f>
+        <f t="shared" ref="D4:D9" si="3">MAX(D3-1,C4-1,C3+IF($A4=D$1,2,-2))</f>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E9" si="5">MAX(E3-1,D4-1,D3+IF($A4=E$1,2,-2))</f>
+        <f t="shared" ref="E4:E9" si="4">MAX(E3-1,D4-1,D3+IF($A4=E$1,2,-2))</f>
         <v>3</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F9" si="6">MAX(F3-1,E4-1,E3+IF($A4=F$1,2,-2))</f>
+        <f t="shared" ref="F4:F9" si="5">MAX(F3-1,E4-1,E3+IF($A4=F$1,2,-2))</f>
         <v>2</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G9" si="7">MAX(G3-1,F4-1,F3+IF($A4=G$1,2,-2))</f>
+        <f t="shared" ref="G4:G9" si="6">MAX(G3-1,F4-1,F3+IF($A4=G$1,2,-2))</f>
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H9" si="8">MAX(H3-1,G4-1,G3+IF($A4=H$1,2,-2))</f>
+        <f t="shared" ref="H4:H9" si="7">MAX(H3-1,G4-1,G3+IF($A4=H$1,2,-2))</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I9" si="9">MAX(I3-1,H4-1,H3+IF($A4=I$1,2,-2))</f>
+        <f t="shared" ref="I4:I9" si="8">MAX(I3-1,H4-1,H3+IF($A4=I$1,2,-2))</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O6" si="9">L4*4+M4*2+N4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -527,35 +562,42 @@
         <v>-3</v>
       </c>
       <c r="C5" s="2">
+        <f>MAX(C4-1,B5-1,B4+IF($A5=C$1,2,-2))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -564,35 +606,45 @@
         <v>-4</v>
       </c>
       <c r="C6" s="2">
+        <f>MAX(C5-1,B6-1,B5+IF($A6=C$1,2,-2))</f>
+        <v>-1</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -601,35 +653,42 @@
         <v>-5</v>
       </c>
       <c r="C7" s="2">
+        <f t="shared" ref="C4:C9" si="10">MAX(C6-1,B7-1,B6+IF($A7=C$1,2,-2))</f>
+        <v>-2</v>
+      </c>
+      <c r="D7" s="2">
         <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="9"/>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f>L7*4+M7*2+N7</f>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -638,35 +697,45 @@
         <v>-6</v>
       </c>
       <c r="C8" s="2">
+        <f t="shared" si="10"/>
+        <v>-3</v>
+      </c>
+      <c r="D8" s="2">
         <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="7"/>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O10" si="11">L8*4+M8*2+N8</f>
         <v>5</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -675,32 +744,57 @@
         <v>-7</v>
       </c>
       <c r="C9" s="2">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-      <c r="D9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="11"/>
         <v>7</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="9"/>
-        <v>6</v>
       </c>
     </row>
   </sheetData>
